--- a/data/pca/factorExposure/factorExposure_2019-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1204832252658739</v>
+        <v>0.07745654152257342</v>
       </c>
       <c r="C2">
-        <v>-0.01340409362138308</v>
+        <v>-0.01359473644344499</v>
       </c>
       <c r="D2">
-        <v>0.01972439438733946</v>
+        <v>-0.04238490794905292</v>
       </c>
       <c r="E2">
-        <v>0.1027367803947471</v>
+        <v>0.1087072164335078</v>
       </c>
       <c r="F2">
-        <v>-0.08829057532709546</v>
+        <v>-0.08427751684005025</v>
       </c>
       <c r="G2">
-        <v>-0.1355666190822464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08542535930352788</v>
+      </c>
+      <c r="H2">
+        <v>-0.08876967322561927</v>
+      </c>
+      <c r="I2">
+        <v>-0.04681178393772606</v>
+      </c>
+      <c r="J2">
+        <v>0.01292727392852556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2107381094949012</v>
+        <v>0.1621569534706358</v>
       </c>
       <c r="C3">
-        <v>0.08583350645611677</v>
+        <v>-0.08032884915137725</v>
       </c>
       <c r="D3">
-        <v>-0.08228683759902351</v>
+        <v>0.03402733355519765</v>
       </c>
       <c r="E3">
-        <v>0.3186549592616839</v>
+        <v>0.2430950830997788</v>
       </c>
       <c r="F3">
-        <v>-0.0106157322267804</v>
+        <v>-0.304627470540181</v>
       </c>
       <c r="G3">
-        <v>-0.3555312541191637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01179809075651846</v>
+      </c>
+      <c r="H3">
+        <v>-0.2787502016477511</v>
+      </c>
+      <c r="I3">
+        <v>-0.1254844893157403</v>
+      </c>
+      <c r="J3">
+        <v>0.2605147602635342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09891958258945098</v>
+        <v>0.07377914883494995</v>
       </c>
       <c r="C4">
-        <v>0.02659857665030689</v>
+        <v>-0.03305730252413779</v>
       </c>
       <c r="D4">
-        <v>0.001662349364516349</v>
+        <v>-0.02555891388798407</v>
       </c>
       <c r="E4">
-        <v>0.07885497885520221</v>
+        <v>0.03491710213980567</v>
       </c>
       <c r="F4">
-        <v>-0.04828338183326285</v>
+        <v>-0.08871303605480564</v>
       </c>
       <c r="G4">
-        <v>-0.03121851962987356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03596535302649932</v>
+      </c>
+      <c r="H4">
+        <v>-0.03871034329418704</v>
+      </c>
+      <c r="I4">
+        <v>-0.02014234332164628</v>
+      </c>
+      <c r="J4">
+        <v>0.055248779035417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01295198159201502</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003624397902204539</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0004286305615841141</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002072249927977932</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003799911640355958</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01824250200380258</v>
+      </c>
+      <c r="H6">
+        <v>-0.002529438462163971</v>
+      </c>
+      <c r="I6">
+        <v>0.003337456141792494</v>
+      </c>
+      <c r="J6">
+        <v>0.00307301321616806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04357437308703494</v>
+        <v>0.03444311172730823</v>
       </c>
       <c r="C7">
-        <v>0.005007789161543073</v>
+        <v>-0.01689580235140018</v>
       </c>
       <c r="D7">
-        <v>0.02354406927156124</v>
+        <v>-0.02019697350529911</v>
       </c>
       <c r="E7">
-        <v>0.08205438598038968</v>
+        <v>0.03236061518678564</v>
       </c>
       <c r="F7">
-        <v>0.03630385289729254</v>
+        <v>-0.05077099167359739</v>
       </c>
       <c r="G7">
-        <v>-0.02047207450760028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01296760629619466</v>
+      </c>
+      <c r="H7">
+        <v>-0.04618933451953739</v>
+      </c>
+      <c r="I7">
+        <v>-0.0002575281736880957</v>
+      </c>
+      <c r="J7">
+        <v>0.0222213778922304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0437145643840747</v>
+        <v>0.03288800919065548</v>
       </c>
       <c r="C8">
-        <v>0.03716168099957667</v>
+        <v>-0.03663215594824767</v>
       </c>
       <c r="D8">
-        <v>-0.008868274063953329</v>
+        <v>-0.008062050751760461</v>
       </c>
       <c r="E8">
-        <v>0.06884349394218833</v>
+        <v>0.03387829444978797</v>
       </c>
       <c r="F8">
-        <v>0.004531678450370313</v>
+        <v>-0.07771646128809477</v>
       </c>
       <c r="G8">
-        <v>-0.04762618627670966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.003580779179608081</v>
+      </c>
+      <c r="H8">
+        <v>-0.05554947626245802</v>
+      </c>
+      <c r="I8">
+        <v>-0.02537686916303954</v>
+      </c>
+      <c r="J8">
+        <v>0.04212879895013715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08726542229614927</v>
+        <v>0.06407848752439053</v>
       </c>
       <c r="C9">
-        <v>0.02673322153737319</v>
+        <v>-0.03389104349928045</v>
       </c>
       <c r="D9">
-        <v>0.01730935707005655</v>
+        <v>-0.02656978056515906</v>
       </c>
       <c r="E9">
-        <v>0.06976018295195309</v>
+        <v>0.03069778220325557</v>
       </c>
       <c r="F9">
-        <v>-0.02893422693397444</v>
+        <v>-0.08947352923664427</v>
       </c>
       <c r="G9">
-        <v>-0.02156435125129711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02476633349559896</v>
+      </c>
+      <c r="H9">
+        <v>-0.03325082314513415</v>
+      </c>
+      <c r="I9">
+        <v>-0.008133268136641107</v>
+      </c>
+      <c r="J9">
+        <v>0.01482290012273003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01173341661512253</v>
+        <v>0.01122898251904521</v>
       </c>
       <c r="C10">
-        <v>-0.1627861880761707</v>
+        <v>0.1622813802561922</v>
       </c>
       <c r="D10">
-        <v>-0.01214307131033832</v>
+        <v>0.006436657883608032</v>
       </c>
       <c r="E10">
-        <v>0.04627788696058018</v>
+        <v>0.04653967011025141</v>
       </c>
       <c r="F10">
-        <v>-0.006297746792165657</v>
+        <v>-0.03262465559413628</v>
       </c>
       <c r="G10">
-        <v>0.007332868634514891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01915005767009394</v>
+      </c>
+      <c r="H10">
+        <v>0.01650750481474178</v>
+      </c>
+      <c r="I10">
+        <v>-0.1128658572407365</v>
+      </c>
+      <c r="J10">
+        <v>0.0422890514854356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05874211082799558</v>
+        <v>0.05024559903306579</v>
       </c>
       <c r="C11">
-        <v>0.002600341149058577</v>
+        <v>-0.02049159850332017</v>
       </c>
       <c r="D11">
-        <v>-0.01264276052511118</v>
+        <v>-0.00731874515692592</v>
       </c>
       <c r="E11">
-        <v>0.03879945617446786</v>
+        <v>0.03744162850458913</v>
       </c>
       <c r="F11">
-        <v>-0.005829507562419429</v>
+        <v>-0.02327633645621119</v>
       </c>
       <c r="G11">
-        <v>0.004536629720970528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001957449372957749</v>
+      </c>
+      <c r="H11">
+        <v>-0.01848196200843971</v>
+      </c>
+      <c r="I11">
+        <v>0.01710283881103205</v>
+      </c>
+      <c r="J11">
+        <v>0.01001215367577517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04943974759039252</v>
+        <v>0.04823437004636663</v>
       </c>
       <c r="C12">
-        <v>0.008087026440769368</v>
+        <v>-0.02124633756971648</v>
       </c>
       <c r="D12">
-        <v>-0.007162246337177714</v>
+        <v>-0.007730434703915594</v>
       </c>
       <c r="E12">
-        <v>0.0252636958961593</v>
+        <v>0.01113408873345796</v>
       </c>
       <c r="F12">
-        <v>0.000200208940859085</v>
+        <v>-0.02158324020093373</v>
       </c>
       <c r="G12">
-        <v>-0.0002325745057343214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002396564336667831</v>
+      </c>
+      <c r="H12">
+        <v>-0.008569526401551033</v>
+      </c>
+      <c r="I12">
+        <v>0.02101416433194979</v>
+      </c>
+      <c r="J12">
+        <v>0.002713248013223558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05801696936614104</v>
+        <v>0.04022720991271889</v>
       </c>
       <c r="C13">
-        <v>0.01731040105853389</v>
+        <v>-0.0194438582650002</v>
       </c>
       <c r="D13">
-        <v>-0.0251339238260554</v>
+        <v>-0.008485238485147215</v>
       </c>
       <c r="E13">
-        <v>0.1099182559982856</v>
+        <v>0.08058083876779706</v>
       </c>
       <c r="F13">
-        <v>-0.01885334206985339</v>
+        <v>-0.06640627805189536</v>
       </c>
       <c r="G13">
-        <v>-0.04967234893974159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.005514210215612452</v>
+      </c>
+      <c r="H13">
+        <v>-0.05829579057440373</v>
+      </c>
+      <c r="I13">
+        <v>-0.01543461671212455</v>
+      </c>
+      <c r="J13">
+        <v>0.01237136692170013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03648451225939051</v>
+        <v>0.02770476800537928</v>
       </c>
       <c r="C14">
-        <v>0.008209640725686102</v>
+        <v>-0.01455321086831378</v>
       </c>
       <c r="D14">
-        <v>0.01547033011970954</v>
+        <v>-0.02302337324731484</v>
       </c>
       <c r="E14">
-        <v>0.0247046633713007</v>
+        <v>0.01853790442631502</v>
       </c>
       <c r="F14">
-        <v>0.003937953788233562</v>
+        <v>-0.0349218636324086</v>
       </c>
       <c r="G14">
-        <v>-0.05050647583538469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01199897391001719</v>
+      </c>
+      <c r="H14">
+        <v>-0.05999598363233634</v>
+      </c>
+      <c r="I14">
+        <v>-0.02311081790783602</v>
+      </c>
+      <c r="J14">
+        <v>0.005816150803736865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05030206592202387</v>
+        <v>0.04287192627932016</v>
       </c>
       <c r="C16">
-        <v>0.02127257485234649</v>
+        <v>-0.02913276593964946</v>
       </c>
       <c r="D16">
-        <v>-0.02077111768654147</v>
+        <v>-0.0009978769481960427</v>
       </c>
       <c r="E16">
-        <v>0.03273944287457385</v>
+        <v>0.03079201866157659</v>
       </c>
       <c r="F16">
-        <v>0.0003829852852854861</v>
+        <v>-0.02328492319515608</v>
       </c>
       <c r="G16">
-        <v>0.01068836656149014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005770940158577236</v>
+      </c>
+      <c r="H16">
+        <v>-0.01636253883506938</v>
+      </c>
+      <c r="I16">
+        <v>0.01606030417305129</v>
+      </c>
+      <c r="J16">
+        <v>0.009766194382501182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05081382303921597</v>
+        <v>0.0446155562284698</v>
       </c>
       <c r="C19">
-        <v>0.03110581106670336</v>
+        <v>-0.03497354495860502</v>
       </c>
       <c r="D19">
-        <v>-0.009994149090763784</v>
+        <v>-0.009909439411900797</v>
       </c>
       <c r="E19">
-        <v>0.07604762840953294</v>
+        <v>0.06035729653386</v>
       </c>
       <c r="F19">
-        <v>0.009042514660989005</v>
+        <v>-0.06943491806450397</v>
       </c>
       <c r="G19">
-        <v>-0.05800034189865652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006260487684217311</v>
+      </c>
+      <c r="H19">
+        <v>-0.08519905497423186</v>
+      </c>
+      <c r="I19">
+        <v>-0.05139175555301297</v>
+      </c>
+      <c r="J19">
+        <v>0.01464385826366533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03681829568637854</v>
+        <v>0.01884183976568172</v>
       </c>
       <c r="C20">
-        <v>0.03319880656050336</v>
+        <v>-0.03340991593919227</v>
       </c>
       <c r="D20">
-        <v>0.001170978153384698</v>
+        <v>-0.01513909175800335</v>
       </c>
       <c r="E20">
-        <v>0.06678645649672624</v>
+        <v>0.03959817066046757</v>
       </c>
       <c r="F20">
-        <v>0.01703566569925792</v>
+        <v>-0.06083699029149483</v>
       </c>
       <c r="G20">
-        <v>-0.04839332975958485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01165956936355134</v>
+      </c>
+      <c r="H20">
+        <v>-0.07533788935445404</v>
+      </c>
+      <c r="I20">
+        <v>-0.01194006126789868</v>
+      </c>
+      <c r="J20">
+        <v>0.04882055774405859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03678416539667189</v>
+        <v>0.0170681681622827</v>
       </c>
       <c r="C21">
-        <v>0.01504471753971618</v>
+        <v>-0.02291828869988496</v>
       </c>
       <c r="D21">
-        <v>-0.02015206291783025</v>
+        <v>0.004670890007731246</v>
       </c>
       <c r="E21">
-        <v>0.08824356246382081</v>
+        <v>0.04401663685821093</v>
       </c>
       <c r="F21">
-        <v>-0.03999707187629586</v>
+        <v>-0.06950057475559032</v>
       </c>
       <c r="G21">
-        <v>-0.05380093126966594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01784903399737927</v>
+      </c>
+      <c r="H21">
+        <v>-0.04430554598187579</v>
+      </c>
+      <c r="I21">
+        <v>0.003587451143101987</v>
+      </c>
+      <c r="J21">
+        <v>-0.009273632326004292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04599944780422299</v>
+        <v>0.04062560635347452</v>
       </c>
       <c r="C24">
-        <v>0.01177675220080884</v>
+        <v>-0.01749701186975306</v>
       </c>
       <c r="D24">
-        <v>-0.009373137118589954</v>
+        <v>-0.007112021132452317</v>
       </c>
       <c r="E24">
-        <v>0.04845228733759403</v>
+        <v>0.03483174141824824</v>
       </c>
       <c r="F24">
-        <v>-0.003710413843064611</v>
+        <v>-0.02891646257568165</v>
       </c>
       <c r="G24">
-        <v>0.01159847151801401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01033317335752602</v>
+      </c>
+      <c r="H24">
+        <v>-0.01412053429357114</v>
+      </c>
+      <c r="I24">
+        <v>0.01287202919872722</v>
+      </c>
+      <c r="J24">
+        <v>0.01562449698043424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04896858437298655</v>
+        <v>0.04355761671434175</v>
       </c>
       <c r="C25">
-        <v>0.003857054893451979</v>
+        <v>-0.01915683830315188</v>
       </c>
       <c r="D25">
-        <v>-0.01229814014559517</v>
+        <v>-0.004007601002339659</v>
       </c>
       <c r="E25">
-        <v>0.03969105692003803</v>
+        <v>0.03496968815132199</v>
       </c>
       <c r="F25">
-        <v>-0.007436445986843005</v>
+        <v>-0.03323789567843484</v>
       </c>
       <c r="G25">
-        <v>0.006691557237890558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002916074633427028</v>
+      </c>
+      <c r="H25">
+        <v>-0.01051298036958366</v>
+      </c>
+      <c r="I25">
+        <v>0.01464086418034979</v>
+      </c>
+      <c r="J25">
+        <v>0.004463036776088322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002896945447080193</v>
+        <v>0.009931804238752985</v>
       </c>
       <c r="C26">
-        <v>0.01630407306312536</v>
+        <v>-0.01728300649784301</v>
       </c>
       <c r="D26">
-        <v>0.002110794589665926</v>
+        <v>0.002731541914697176</v>
       </c>
       <c r="E26">
-        <v>0.05329042794775387</v>
+        <v>0.04518203660688813</v>
       </c>
       <c r="F26">
-        <v>-0.02419313124368217</v>
+        <v>-0.03274656155237633</v>
       </c>
       <c r="G26">
-        <v>-0.02658905048848721</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01041756323268616</v>
+      </c>
+      <c r="H26">
+        <v>-0.03710683364651341</v>
+      </c>
+      <c r="I26">
+        <v>0.004779934451015132</v>
+      </c>
+      <c r="J26">
+        <v>0.02297432212002866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1127194163114916</v>
+        <v>0.08784205153918168</v>
       </c>
       <c r="C27">
-        <v>0.01613622543642735</v>
+        <v>-0.02681304131224626</v>
       </c>
       <c r="D27">
-        <v>0.003165521472980163</v>
+        <v>-0.0309019381126951</v>
       </c>
       <c r="E27">
-        <v>0.113175779216491</v>
+        <v>0.04392942380534288</v>
       </c>
       <c r="F27">
-        <v>-0.01382570148188617</v>
+        <v>-0.07497802671519511</v>
       </c>
       <c r="G27">
-        <v>0.01588427827585081</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0009481336998070078</v>
+      </c>
+      <c r="H27">
+        <v>-0.01418785010485276</v>
+      </c>
+      <c r="I27">
+        <v>0.001769510688874426</v>
+      </c>
+      <c r="J27">
+        <v>0.0345594359539443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01311735602540119</v>
+        <v>0.02186082116674389</v>
       </c>
       <c r="C28">
-        <v>-0.2393768899518454</v>
+        <v>0.2321729380438299</v>
       </c>
       <c r="D28">
-        <v>-0.01966700818477205</v>
+        <v>0.01124051008523524</v>
       </c>
       <c r="E28">
-        <v>0.0253744805717983</v>
+        <v>0.03763631831861768</v>
       </c>
       <c r="F28">
-        <v>-0.008506329359309051</v>
+        <v>-0.02593074131335877</v>
       </c>
       <c r="G28">
-        <v>0.04428749578153756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02278318748176216</v>
+      </c>
+      <c r="H28">
+        <v>0.04275391628689799</v>
+      </c>
+      <c r="I28">
+        <v>-0.1556349116411162</v>
+      </c>
+      <c r="J28">
+        <v>0.06845105431102914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01951535602981574</v>
+        <v>0.01898021239589303</v>
       </c>
       <c r="C29">
-        <v>0.01741125536720132</v>
+        <v>-0.01828636420960559</v>
       </c>
       <c r="D29">
-        <v>0.01797578589332372</v>
+        <v>-0.02125711576044695</v>
       </c>
       <c r="E29">
-        <v>0.0353978491358655</v>
+        <v>0.01432550607841469</v>
       </c>
       <c r="F29">
-        <v>-0.01046129932914934</v>
+        <v>-0.04044879069702414</v>
       </c>
       <c r="G29">
-        <v>-0.05184229583236754</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01407521966391298</v>
+      </c>
+      <c r="H29">
+        <v>-0.05774598105524507</v>
+      </c>
+      <c r="I29">
+        <v>-0.01111532476020635</v>
+      </c>
+      <c r="J29">
+        <v>0.001827408559740007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1033769000836916</v>
+        <v>0.09930956111631045</v>
       </c>
       <c r="C30">
-        <v>0.008273186948482397</v>
+        <v>-0.03326640393259678</v>
       </c>
       <c r="D30">
-        <v>0.0005684406270553635</v>
+        <v>-0.03418326109995692</v>
       </c>
       <c r="E30">
-        <v>0.1296281984143803</v>
+        <v>0.08733048642403519</v>
       </c>
       <c r="F30">
-        <v>-0.02748079512348383</v>
+        <v>-0.07085831237237061</v>
       </c>
       <c r="G30">
-        <v>0.06448378109323268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01554859507405817</v>
+      </c>
+      <c r="H30">
+        <v>-0.0171878912828973</v>
+      </c>
+      <c r="I30">
+        <v>0.03216670562707339</v>
+      </c>
+      <c r="J30">
+        <v>0.0009489231785942328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05515218750587442</v>
+        <v>0.05743519921916026</v>
       </c>
       <c r="C31">
-        <v>0.01187361266571766</v>
+        <v>-0.01943878638707812</v>
       </c>
       <c r="D31">
-        <v>0.01930385144241798</v>
+        <v>-0.01684369065488078</v>
       </c>
       <c r="E31">
-        <v>-0.01489895105119827</v>
+        <v>0.01513645544745281</v>
       </c>
       <c r="F31">
-        <v>-0.01362502054789516</v>
+        <v>0.005324082888050616</v>
       </c>
       <c r="G31">
-        <v>-0.02742756212752558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03546338953218967</v>
+      </c>
+      <c r="H31">
+        <v>-0.04590629969495268</v>
+      </c>
+      <c r="I31">
+        <v>-0.0175980610254007</v>
+      </c>
+      <c r="J31">
+        <v>0.003510797493026778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06634057812102331</v>
+        <v>0.04511447331682768</v>
       </c>
       <c r="C32">
-        <v>0.02610115155436123</v>
+        <v>-0.04697641087968655</v>
       </c>
       <c r="D32">
-        <v>-0.003427709651485239</v>
+        <v>-0.01984117310817847</v>
       </c>
       <c r="E32">
-        <v>0.1220213165045906</v>
+        <v>0.0552418647597463</v>
       </c>
       <c r="F32">
-        <v>0.01366263127753195</v>
+        <v>-0.08454024987323439</v>
       </c>
       <c r="G32">
-        <v>-0.04162077121208699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01464281879462951</v>
+      </c>
+      <c r="H32">
+        <v>-0.05312418266090654</v>
+      </c>
+      <c r="I32">
+        <v>-0.02256496325262235</v>
+      </c>
+      <c r="J32">
+        <v>0.002612766054354498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06880987664126784</v>
+        <v>0.05825967150710806</v>
       </c>
       <c r="C33">
-        <v>0.02759503286477016</v>
+        <v>-0.04349144164432783</v>
       </c>
       <c r="D33">
-        <v>-3.720610736686382e-05</v>
+        <v>-0.006278458714769084</v>
       </c>
       <c r="E33">
-        <v>0.07218046693397233</v>
+        <v>0.0633785703568473</v>
       </c>
       <c r="F33">
-        <v>-0.03670265741190384</v>
+        <v>-0.05662795212948148</v>
       </c>
       <c r="G33">
-        <v>-0.03108146289555136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01679326122516615</v>
+      </c>
+      <c r="H33">
+        <v>-0.05416891758461439</v>
+      </c>
+      <c r="I33">
+        <v>0.01419699540800023</v>
+      </c>
+      <c r="J33">
+        <v>0.01219629456896022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04700967039956722</v>
+        <v>0.04235502496449343</v>
       </c>
       <c r="C34">
-        <v>0.01142493610296495</v>
+        <v>-0.02339774819378956</v>
       </c>
       <c r="D34">
-        <v>-0.009490821546987037</v>
+        <v>-0.009662827833730599</v>
       </c>
       <c r="E34">
-        <v>0.02407600293693562</v>
+        <v>0.02519147022406743</v>
       </c>
       <c r="F34">
-        <v>0.004259852189998464</v>
+        <v>-0.02482924442742665</v>
       </c>
       <c r="G34">
-        <v>-0.0118612351005201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001093942277056376</v>
+      </c>
+      <c r="H34">
+        <v>-0.02150786504538053</v>
+      </c>
+      <c r="I34">
+        <v>0.01368171615850551</v>
+      </c>
+      <c r="J34">
+        <v>-0.001010025097928038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01246477872118987</v>
+        <v>0.01378772076061557</v>
       </c>
       <c r="C36">
-        <v>-0.01014184774462884</v>
+        <v>-0.000879347507905363</v>
       </c>
       <c r="D36">
-        <v>0.004083071485513076</v>
+        <v>-0.007263940889215718</v>
       </c>
       <c r="E36">
-        <v>0.02425743683575694</v>
+        <v>0.01751957410727369</v>
       </c>
       <c r="F36">
-        <v>-0.01125665371520336</v>
+        <v>-0.0252591115121854</v>
       </c>
       <c r="G36">
-        <v>-0.01957983382938635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0153344538564647</v>
+      </c>
+      <c r="H36">
+        <v>-0.03294513385906726</v>
+      </c>
+      <c r="I36">
+        <v>-0.00762730223683374</v>
+      </c>
+      <c r="J36">
+        <v>-0.004948195454083282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05349480546553318</v>
+        <v>0.03019225154995609</v>
       </c>
       <c r="C38">
-        <v>0.002195948213592357</v>
+        <v>-0.006246162515327877</v>
       </c>
       <c r="D38">
-        <v>0.01934983904083242</v>
+        <v>-0.008824776706867649</v>
       </c>
       <c r="E38">
-        <v>0.03662111615169734</v>
+        <v>0.03011410949207135</v>
       </c>
       <c r="F38">
-        <v>-0.0103250670551562</v>
+        <v>-0.04322691770220505</v>
       </c>
       <c r="G38">
-        <v>-0.03383710777580145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02242039211637592</v>
+      </c>
+      <c r="H38">
+        <v>-0.02008334873803114</v>
+      </c>
+      <c r="I38">
+        <v>-0.003201236849118899</v>
+      </c>
+      <c r="J38">
+        <v>-0.02162790366055727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.0758351651352001</v>
+        <v>0.06118211654154708</v>
       </c>
       <c r="C39">
-        <v>0.01342438814459164</v>
+        <v>-0.03479587832545288</v>
       </c>
       <c r="D39">
-        <v>-0.006428521518772402</v>
+        <v>-0.02054920341957732</v>
       </c>
       <c r="E39">
-        <v>0.04490858476111966</v>
+        <v>0.0483406722161089</v>
       </c>
       <c r="F39">
-        <v>-0.02205443885466823</v>
+        <v>-0.03223180867558449</v>
       </c>
       <c r="G39">
-        <v>0.003395898753154894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01014171973395574</v>
+      </c>
+      <c r="H39">
+        <v>-0.02096744187999818</v>
+      </c>
+      <c r="I39">
+        <v>0.02848509537768067</v>
+      </c>
+      <c r="J39">
+        <v>0.0006317554678785805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07219101091941844</v>
+        <v>0.05716686544930211</v>
       </c>
       <c r="C40">
-        <v>0.0279168013822183</v>
+        <v>-0.03307143487438324</v>
       </c>
       <c r="D40">
-        <v>-0.01267927866458571</v>
+        <v>-0.02470444524477251</v>
       </c>
       <c r="E40">
-        <v>0.1093010694894938</v>
+        <v>0.08954348443504395</v>
       </c>
       <c r="F40">
-        <v>-0.02709919374985246</v>
+        <v>-0.06396419841381026</v>
       </c>
       <c r="G40">
-        <v>-0.08980567018472969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-2.179604960352394e-05</v>
+      </c>
+      <c r="H40">
+        <v>-0.08307986483505576</v>
+      </c>
+      <c r="I40">
+        <v>-0.008834397910879869</v>
+      </c>
+      <c r="J40">
+        <v>0.03053153690728387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003943369763414447</v>
+        <v>0.001039833135233021</v>
       </c>
       <c r="C41">
-        <v>0.01199081228733747</v>
+        <v>-0.01071749053880665</v>
       </c>
       <c r="D41">
-        <v>0.01374112872969191</v>
+        <v>-0.004419230508690536</v>
       </c>
       <c r="E41">
-        <v>0.01207307680516539</v>
+        <v>0.007778643337656061</v>
       </c>
       <c r="F41">
-        <v>-0.02089199442040473</v>
+        <v>-0.01596427090663135</v>
       </c>
       <c r="G41">
-        <v>-0.03317205106035338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02588029075054933</v>
+      </c>
+      <c r="H41">
+        <v>-0.03924466932879084</v>
+      </c>
+      <c r="I41">
+        <v>-0.02398418633513163</v>
+      </c>
+      <c r="J41">
+        <v>0.01473460542041756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1317143208099525</v>
+        <v>0.2418668912334676</v>
       </c>
       <c r="C42">
-        <v>0.176804551395943</v>
+        <v>-0.1130228588840452</v>
       </c>
       <c r="D42">
-        <v>-0.9225443748660287</v>
+        <v>0.9187911498688991</v>
       </c>
       <c r="E42">
-        <v>-0.1466858506535496</v>
+        <v>0.04187177106198781</v>
       </c>
       <c r="F42">
-        <v>0.0145320606459385</v>
+        <v>0.2248416870598923</v>
       </c>
       <c r="G42">
-        <v>0.147823141405323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.00338233329848351</v>
+      </c>
+      <c r="H42">
+        <v>0.01234582559109105</v>
+      </c>
+      <c r="I42">
+        <v>-0.04705898955960917</v>
+      </c>
+      <c r="J42">
+        <v>0.0252129108355572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.006922732150959088</v>
+        <v>0.002423602081836543</v>
       </c>
       <c r="C43">
-        <v>0.01500918664273058</v>
+        <v>-0.01332250605011507</v>
       </c>
       <c r="D43">
-        <v>0.01300279467594877</v>
+        <v>-0.004963581727862432</v>
       </c>
       <c r="E43">
-        <v>0.03519055652621456</v>
+        <v>0.01866723439324645</v>
       </c>
       <c r="F43">
-        <v>0.0005094638412111906</v>
+        <v>-0.02389230481056282</v>
       </c>
       <c r="G43">
-        <v>-0.02854326361485402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007463391050978651</v>
+      </c>
+      <c r="H43">
+        <v>-0.03822861280828384</v>
+      </c>
+      <c r="I43">
+        <v>-0.01373639993664002</v>
+      </c>
+      <c r="J43">
+        <v>0.01427916858295087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04181802131010966</v>
+        <v>0.0283928202856595</v>
       </c>
       <c r="C44">
-        <v>0.03495664109447202</v>
+        <v>-0.03103583054717143</v>
       </c>
       <c r="D44">
-        <v>-0.008225609762966655</v>
+        <v>-0.002300361884828092</v>
       </c>
       <c r="E44">
-        <v>0.1119638488617851</v>
+        <v>0.08013106060798232</v>
       </c>
       <c r="F44">
-        <v>-0.0626546352651523</v>
+        <v>-0.09220769623294166</v>
       </c>
       <c r="G44">
-        <v>-0.1428163441126044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02817795071105689</v>
+      </c>
+      <c r="H44">
+        <v>-0.116589318714723</v>
+      </c>
+      <c r="I44">
+        <v>-0.03167318357169906</v>
+      </c>
+      <c r="J44">
+        <v>0.01130342438478284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02127593664229204</v>
+        <v>0.02086497696835215</v>
       </c>
       <c r="C46">
-        <v>0.01418252480257037</v>
+        <v>-0.02512864626274497</v>
       </c>
       <c r="D46">
-        <v>0.02072546668770354</v>
+        <v>-0.01823743300833737</v>
       </c>
       <c r="E46">
-        <v>0.02458410728761796</v>
+        <v>0.02991147652846713</v>
       </c>
       <c r="F46">
-        <v>-0.02478566082211778</v>
+        <v>-0.03700663180987537</v>
       </c>
       <c r="G46">
-        <v>-0.05269328727700646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01673592906879189</v>
+      </c>
+      <c r="H46">
+        <v>-0.06153878683117135</v>
+      </c>
+      <c r="I46">
+        <v>-0.0161796912052433</v>
+      </c>
+      <c r="J46">
+        <v>0.02119281116606719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07942887503379499</v>
+        <v>0.08849229564494347</v>
       </c>
       <c r="C47">
-        <v>0.007497415135474907</v>
+        <v>-0.01729094966921751</v>
       </c>
       <c r="D47">
-        <v>0.02122181666834632</v>
+        <v>-0.02371424554273494</v>
       </c>
       <c r="E47">
-        <v>-0.01539876178331983</v>
+        <v>-0.002019234229995333</v>
       </c>
       <c r="F47">
-        <v>-0.005998790463630225</v>
+        <v>0.004805382881958741</v>
       </c>
       <c r="G47">
-        <v>-0.0507084092401925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03142559729730719</v>
+      </c>
+      <c r="H47">
+        <v>-0.06628516688367324</v>
+      </c>
+      <c r="I47">
+        <v>-0.02560048076831872</v>
+      </c>
+      <c r="J47">
+        <v>0.01529308646933749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01465283609057749</v>
+        <v>0.01438098162909248</v>
       </c>
       <c r="C48">
-        <v>0.0154131698527468</v>
+        <v>-0.0190845307858241</v>
       </c>
       <c r="D48">
-        <v>0.0109527899740208</v>
+        <v>-0.006741314676067099</v>
       </c>
       <c r="E48">
-        <v>0.03632604765571675</v>
+        <v>0.02057294284981225</v>
       </c>
       <c r="F48">
-        <v>-0.01738149197256774</v>
+        <v>-0.0333857342938802</v>
       </c>
       <c r="G48">
-        <v>-0.01349864160621087</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.009546075167468382</v>
+      </c>
+      <c r="H48">
+        <v>-0.02341784312362869</v>
+      </c>
+      <c r="I48">
+        <v>-0.0133329304643616</v>
+      </c>
+      <c r="J48">
+        <v>0.01228640781684568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07700147415835623</v>
+        <v>0.08072434303183422</v>
       </c>
       <c r="C50">
-        <v>0.01970468067271653</v>
+        <v>-0.02978318348632127</v>
       </c>
       <c r="D50">
-        <v>0.02383542044021033</v>
+        <v>-0.01787604568012944</v>
       </c>
       <c r="E50">
-        <v>-0.02389426222040227</v>
+        <v>-0.00228682983457797</v>
       </c>
       <c r="F50">
-        <v>-0.005925027948301818</v>
+        <v>-0.004105464181227828</v>
       </c>
       <c r="G50">
-        <v>-0.02712858965718799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004253255841200515</v>
+      </c>
+      <c r="H50">
+        <v>-0.05170072699288275</v>
+      </c>
+      <c r="I50">
+        <v>-0.01149971538104137</v>
+      </c>
+      <c r="J50">
+        <v>-0.02479053386658241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0685284642194238</v>
+        <v>0.04667804517647764</v>
       </c>
       <c r="C51">
-        <v>-0.02062480890656123</v>
+        <v>0.004226524869634032</v>
       </c>
       <c r="D51">
-        <v>-0.01156462371894884</v>
+        <v>-0.01211373242292821</v>
       </c>
       <c r="E51">
-        <v>0.07740308386793092</v>
+        <v>0.07857985418273156</v>
       </c>
       <c r="F51">
-        <v>-0.05957031439242381</v>
+        <v>-0.05403073048065977</v>
       </c>
       <c r="G51">
-        <v>-0.04445732541293416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04563686079011843</v>
+      </c>
+      <c r="H51">
+        <v>-0.06098177589534115</v>
+      </c>
+      <c r="I51">
+        <v>-0.03907017506490659</v>
+      </c>
+      <c r="J51">
+        <v>0.02432594296071239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1455955965622268</v>
+        <v>0.1295817036415993</v>
       </c>
       <c r="C53">
-        <v>0.01045737436471156</v>
+        <v>-0.03661322569784456</v>
       </c>
       <c r="D53">
-        <v>0.04781969008937965</v>
+        <v>-0.04636054100790357</v>
       </c>
       <c r="E53">
-        <v>-0.03019583063901398</v>
+        <v>-0.02353784400032751</v>
       </c>
       <c r="F53">
-        <v>0.0005683862484788283</v>
+        <v>0.02217815889784986</v>
       </c>
       <c r="G53">
-        <v>-0.01911817617353921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02498632928708874</v>
+      </c>
+      <c r="H53">
+        <v>-0.01264407897543593</v>
+      </c>
+      <c r="I53">
+        <v>-0.01444450154619807</v>
+      </c>
+      <c r="J53">
+        <v>0.06890695390945914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02561737328490839</v>
+        <v>0.02450007674147014</v>
       </c>
       <c r="C54">
-        <v>-0.004881045658105578</v>
+        <v>-0.00561063378831617</v>
       </c>
       <c r="D54">
-        <v>0.01942300828218325</v>
+        <v>-0.02606377577975534</v>
       </c>
       <c r="E54">
-        <v>0.03665611631801426</v>
+        <v>0.01638549342335063</v>
       </c>
       <c r="F54">
-        <v>-0.03371099760043916</v>
+        <v>-0.04061368555132613</v>
       </c>
       <c r="G54">
-        <v>-0.06020164185929221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02626668283252247</v>
+      </c>
+      <c r="H54">
+        <v>-0.06215542940166788</v>
+      </c>
+      <c r="I54">
+        <v>-0.04115898813584213</v>
+      </c>
+      <c r="J54">
+        <v>-0.002856077146973399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09766762928794269</v>
+        <v>0.1017909050292336</v>
       </c>
       <c r="C55">
-        <v>-0.001613198288379532</v>
+        <v>-0.02050282056706907</v>
       </c>
       <c r="D55">
-        <v>0.04006957576272754</v>
+        <v>-0.02987273054312186</v>
       </c>
       <c r="E55">
-        <v>0.004721348015612937</v>
+        <v>-0.03498766634213684</v>
       </c>
       <c r="F55">
-        <v>0.02373893948908032</v>
+        <v>-0.004672792782709529</v>
       </c>
       <c r="G55">
-        <v>-0.002852904344248835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.009839815633675525</v>
+      </c>
+      <c r="H55">
+        <v>-0.02769064653318608</v>
+      </c>
+      <c r="I55">
+        <v>0.001958703751383176</v>
+      </c>
+      <c r="J55">
+        <v>0.06071949922623929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.178603811953416</v>
+        <v>0.1692777752360274</v>
       </c>
       <c r="C56">
-        <v>-0.01738515367301672</v>
+        <v>-0.01876989162506092</v>
       </c>
       <c r="D56">
-        <v>0.08350263073237472</v>
+        <v>-0.08331979809899286</v>
       </c>
       <c r="E56">
-        <v>-0.05493444604714478</v>
+        <v>-0.06513056409720856</v>
       </c>
       <c r="F56">
-        <v>0.05223401138571949</v>
+        <v>0.03928007238493104</v>
       </c>
       <c r="G56">
-        <v>0.01000710381601095</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01825619807911527</v>
+      </c>
+      <c r="H56">
+        <v>0.02773984923388308</v>
+      </c>
+      <c r="I56">
+        <v>0.03004897477580879</v>
+      </c>
+      <c r="J56">
+        <v>0.08416287789922196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09203800623805733</v>
+        <v>0.0713566332340788</v>
       </c>
       <c r="C57">
-        <v>0.02081571409283103</v>
+        <v>-0.02642656409512783</v>
       </c>
       <c r="D57">
-        <v>0.02000699441587795</v>
+        <v>-0.01417749734822665</v>
       </c>
       <c r="E57">
-        <v>0.06525018672691177</v>
+        <v>0.05293137397771046</v>
       </c>
       <c r="F57">
-        <v>-0.005762481309690102</v>
+        <v>-0.04615972977672039</v>
       </c>
       <c r="G57">
-        <v>-0.04685050407904989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.002458569415603225</v>
+      </c>
+      <c r="H57">
+        <v>-0.04515542620182571</v>
+      </c>
+      <c r="I57">
+        <v>0.01056927980796886</v>
+      </c>
+      <c r="J57">
+        <v>0.02349460981842811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1672970899839854</v>
+        <v>0.1955276991101967</v>
       </c>
       <c r="C58">
-        <v>-0.005641749609784458</v>
+        <v>-0.04207880885073255</v>
       </c>
       <c r="D58">
-        <v>-0.07014764205232052</v>
+        <v>0.01037353801415342</v>
       </c>
       <c r="E58">
-        <v>0.1229873999823211</v>
+        <v>0.1541456283053404</v>
       </c>
       <c r="F58">
-        <v>0.1047146092594915</v>
+        <v>-0.1163921077534554</v>
       </c>
       <c r="G58">
-        <v>-0.2793277671478991</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1833801604239246</v>
+      </c>
+      <c r="H58">
+        <v>-0.2999560808960693</v>
+      </c>
+      <c r="I58">
+        <v>-0.1666486498680448</v>
+      </c>
+      <c r="J58">
+        <v>-0.5387936641390693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.002199164883078112</v>
+        <v>0.02605314300457376</v>
       </c>
       <c r="C59">
-        <v>-0.2036656065973963</v>
+        <v>0.1980242727400791</v>
       </c>
       <c r="D59">
-        <v>0.01304478502557197</v>
+        <v>-0.02377281791518566</v>
       </c>
       <c r="E59">
-        <v>0.04668035539325529</v>
+        <v>0.05949988907424517</v>
       </c>
       <c r="F59">
-        <v>-0.01098661550154185</v>
+        <v>-0.02166355786874754</v>
       </c>
       <c r="G59">
-        <v>0.03721506714195202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002687356829721082</v>
+      </c>
+      <c r="H59">
+        <v>0.03027239609249522</v>
+      </c>
+      <c r="I59">
+        <v>-0.07791595611759625</v>
+      </c>
+      <c r="J59">
+        <v>0.007016184338643218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1845500256148878</v>
+        <v>0.1825121861518298</v>
       </c>
       <c r="C60">
-        <v>-0.1154361184648177</v>
+        <v>0.05617227866288978</v>
       </c>
       <c r="D60">
-        <v>0.01128505389558138</v>
+        <v>-0.03575382294007091</v>
       </c>
       <c r="E60">
-        <v>0.1773158214970718</v>
+        <v>0.2027828033779527</v>
       </c>
       <c r="F60">
-        <v>-0.05844982759956245</v>
+        <v>-0.08445136395644605</v>
       </c>
       <c r="G60">
-        <v>0.1588061865379766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05039282344546528</v>
+      </c>
+      <c r="H60">
+        <v>0.2264344581337277</v>
+      </c>
+      <c r="I60">
+        <v>0.1263759947236461</v>
+      </c>
+      <c r="J60">
+        <v>-0.01014389278474733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04833368071238935</v>
+        <v>0.03808533951276658</v>
       </c>
       <c r="C61">
-        <v>0.004153577427652258</v>
+        <v>-0.01935741559208332</v>
       </c>
       <c r="D61">
-        <v>-0.01425444441270702</v>
+        <v>-0.002598270743152448</v>
       </c>
       <c r="E61">
-        <v>0.04581682916151456</v>
+        <v>0.03796986245343208</v>
       </c>
       <c r="F61">
-        <v>-0.0211534423946702</v>
+        <v>-0.02693586389167149</v>
       </c>
       <c r="G61">
-        <v>0.01564267923442067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.007011774542512496</v>
+      </c>
+      <c r="H61">
+        <v>-0.006433539700069396</v>
+      </c>
+      <c r="I61">
+        <v>0.03463493287094373</v>
+      </c>
+      <c r="J61">
+        <v>-0.0188444226939189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04033657147071572</v>
+        <v>0.02758236715814739</v>
       </c>
       <c r="C63">
-        <v>-0.008725511733179266</v>
+        <v>-0.01352196171114303</v>
       </c>
       <c r="D63">
-        <v>0.01044991679203239</v>
+        <v>-0.01203177514453655</v>
       </c>
       <c r="E63">
-        <v>0.03988618701930184</v>
+        <v>0.02540914295471662</v>
       </c>
       <c r="F63">
-        <v>-0.009819612861810807</v>
+        <v>-0.02125921420945483</v>
       </c>
       <c r="G63">
-        <v>-0.02047477048519546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006246454756430182</v>
+      </c>
+      <c r="H63">
+        <v>-0.04641264231272872</v>
+      </c>
+      <c r="I63">
+        <v>-0.02575570070193171</v>
+      </c>
+      <c r="J63">
+        <v>0.04575590983901759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09217909747656607</v>
+        <v>0.06686181474164007</v>
       </c>
       <c r="C64">
-        <v>0.03016059957975199</v>
+        <v>-0.04118930202545165</v>
       </c>
       <c r="D64">
-        <v>0.05125840163930195</v>
+        <v>-0.03679012868025385</v>
       </c>
       <c r="E64">
-        <v>0.05935014187585372</v>
+        <v>0.01152755468729235</v>
       </c>
       <c r="F64">
-        <v>-0.08635983392505299</v>
+        <v>-0.07187577801294813</v>
       </c>
       <c r="G64">
-        <v>0.06489734670059188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06369945369040807</v>
+      </c>
+      <c r="H64">
+        <v>0.008201344398796865</v>
+      </c>
+      <c r="I64">
+        <v>-0.005731482022828904</v>
+      </c>
+      <c r="J64">
+        <v>0.0676180771436015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01415058875347422</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004055521186632949</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.000605454935496276</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00318197011776949</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002088745719818787</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01901392648107948</v>
+      </c>
+      <c r="H65">
+        <v>0.001076747741702991</v>
+      </c>
+      <c r="I65">
+        <v>0.00597221612649285</v>
+      </c>
+      <c r="J65">
+        <v>0.002464334969416382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09972412278008287</v>
+        <v>0.07251413104786049</v>
       </c>
       <c r="C66">
-        <v>0.01839486485321828</v>
+        <v>-0.04792746029912742</v>
       </c>
       <c r="D66">
-        <v>0.02958205579935638</v>
+        <v>-0.04519048843983214</v>
       </c>
       <c r="E66">
-        <v>0.08211690682364496</v>
+        <v>0.06456565499251418</v>
       </c>
       <c r="F66">
-        <v>-0.04070494408087062</v>
+        <v>-0.04334471065570039</v>
       </c>
       <c r="G66">
-        <v>-0.004244851356933146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01229183632203678</v>
+      </c>
+      <c r="H66">
+        <v>-0.01505077137577006</v>
+      </c>
+      <c r="I66">
+        <v>0.05057684529457616</v>
+      </c>
+      <c r="J66">
+        <v>0.02281714497330057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05975575809738139</v>
+        <v>0.03999828598396203</v>
       </c>
       <c r="C67">
-        <v>-0.01960841288007435</v>
+        <v>0.008630591298795634</v>
       </c>
       <c r="D67">
-        <v>0.008811182966297937</v>
+        <v>-0.007373673378564624</v>
       </c>
       <c r="E67">
-        <v>0.02945488658356629</v>
+        <v>0.02916114496819269</v>
       </c>
       <c r="F67">
-        <v>-0.01086265272496199</v>
+        <v>-0.02848515797625993</v>
       </c>
       <c r="G67">
-        <v>-0.0310709736328159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02986787149330394</v>
+      </c>
+      <c r="H67">
+        <v>-0.004942287369301732</v>
+      </c>
+      <c r="I67">
+        <v>0.03420009627725802</v>
+      </c>
+      <c r="J67">
+        <v>-0.01300142247233389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.0009696713434177967</v>
+        <v>0.03431175415038602</v>
       </c>
       <c r="C68">
-        <v>-0.2424645356471565</v>
+        <v>0.2321460126578283</v>
       </c>
       <c r="D68">
-        <v>-0.003235902772239347</v>
+        <v>-0.01480501601478918</v>
       </c>
       <c r="E68">
-        <v>0.02893017414057747</v>
+        <v>0.04445597491680662</v>
       </c>
       <c r="F68">
-        <v>0.007730511519383012</v>
+        <v>-0.01737553503912069</v>
       </c>
       <c r="G68">
-        <v>0.02850535124897798</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0110147660972907</v>
+      </c>
+      <c r="H68">
+        <v>0.0362963675259128</v>
+      </c>
+      <c r="I68">
+        <v>-0.1703664208022893</v>
+      </c>
+      <c r="J68">
+        <v>0.02929289275685462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06495318018325627</v>
+        <v>0.06860053005025681</v>
       </c>
       <c r="C69">
-        <v>0.005415088326348191</v>
+        <v>-0.0148076401961303</v>
       </c>
       <c r="D69">
-        <v>0.0274537770300716</v>
+        <v>-0.02895532527145913</v>
       </c>
       <c r="E69">
-        <v>0.001673438204586965</v>
+        <v>0.01007361756181109</v>
       </c>
       <c r="F69">
-        <v>-0.006450892149466652</v>
+        <v>0.001409037426131217</v>
       </c>
       <c r="G69">
-        <v>-0.02288481789989486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02521525345406348</v>
+      </c>
+      <c r="H69">
+        <v>-0.04757842666633667</v>
+      </c>
+      <c r="I69">
+        <v>0.00251744295230519</v>
+      </c>
+      <c r="J69">
+        <v>0.01407880987717014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003953778242381518</v>
+        <v>0.03831545516554431</v>
       </c>
       <c r="C71">
-        <v>-0.2537219236101028</v>
+        <v>0.2474749258431439</v>
       </c>
       <c r="D71">
-        <v>-0.007564142074196214</v>
+        <v>0.003244019648505281</v>
       </c>
       <c r="E71">
-        <v>0.06002704722699893</v>
+        <v>0.07562154796634721</v>
       </c>
       <c r="F71">
-        <v>-0.01085247799007403</v>
+        <v>-0.01321698884770905</v>
       </c>
       <c r="G71">
-        <v>0.1141128597946914</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01484002198283348</v>
+      </c>
+      <c r="H71">
+        <v>0.05059796054672477</v>
+      </c>
+      <c r="I71">
+        <v>-0.1495708748381687</v>
+      </c>
+      <c r="J71">
+        <v>0.01060503840883029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1130827577161516</v>
+        <v>0.1160991488728109</v>
       </c>
       <c r="C72">
-        <v>-0.01801732115551124</v>
+        <v>-0.001354286132583967</v>
       </c>
       <c r="D72">
-        <v>0.02728305159580778</v>
+        <v>-0.06193220704220024</v>
       </c>
       <c r="E72">
-        <v>0.08902773145241973</v>
+        <v>0.05994539474352848</v>
       </c>
       <c r="F72">
-        <v>-0.01262484568643158</v>
+        <v>-0.06226631782603778</v>
       </c>
       <c r="G72">
-        <v>-0.03146680532813571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03026105837380476</v>
+      </c>
+      <c r="H72">
+        <v>0.001641313104896732</v>
+      </c>
+      <c r="I72">
+        <v>-0.004546538339244468</v>
+      </c>
+      <c r="J72">
+        <v>-0.08617880766151936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2775414692070607</v>
+        <v>0.2756858830042127</v>
       </c>
       <c r="C73">
-        <v>-0.2098724941287108</v>
+        <v>0.1218930005580827</v>
       </c>
       <c r="D73">
-        <v>-0.04410709020214788</v>
+        <v>-0.01587666076809439</v>
       </c>
       <c r="E73">
-        <v>0.303270101465289</v>
+        <v>0.3180271395206475</v>
       </c>
       <c r="F73">
-        <v>-0.06849335460365719</v>
+        <v>-0.1174129160570367</v>
       </c>
       <c r="G73">
-        <v>0.4036896156565002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1161038239978755</v>
+      </c>
+      <c r="H73">
+        <v>0.4238166396622742</v>
+      </c>
+      <c r="I73">
+        <v>0.3438807136811144</v>
+      </c>
+      <c r="J73">
+        <v>-0.1801446234542051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1557947067150908</v>
+        <v>0.1497903517379696</v>
       </c>
       <c r="C74">
-        <v>-0.005997079288454924</v>
+        <v>-0.01779391894292773</v>
       </c>
       <c r="D74">
-        <v>0.05002599295180608</v>
+        <v>-0.04541019373507908</v>
       </c>
       <c r="E74">
-        <v>0.007614315077932157</v>
+        <v>-0.02688664840589837</v>
       </c>
       <c r="F74">
-        <v>0.03679610720303959</v>
+        <v>0.02674667362755874</v>
       </c>
       <c r="G74">
-        <v>0.004896077975718141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01076454149011787</v>
+      </c>
+      <c r="H74">
+        <v>0.01567729211690878</v>
+      </c>
+      <c r="I74">
+        <v>0.03135193601695609</v>
+      </c>
+      <c r="J74">
+        <v>0.1011603036830122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2349929364655217</v>
+        <v>0.2417213646656969</v>
       </c>
       <c r="C75">
-        <v>-0.01181012361698863</v>
+        <v>-0.02742313214116807</v>
       </c>
       <c r="D75">
-        <v>0.07079616804783324</v>
+        <v>-0.09702273103737886</v>
       </c>
       <c r="E75">
-        <v>-0.1141604218628363</v>
+        <v>-0.09372888847173262</v>
       </c>
       <c r="F75">
-        <v>0.04759573003450118</v>
+        <v>0.09223793714597546</v>
       </c>
       <c r="G75">
-        <v>0.006445727276598395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01090927282025175</v>
+      </c>
+      <c r="H75">
+        <v>0.01683417154558132</v>
+      </c>
+      <c r="I75">
+        <v>-0.01631380911034048</v>
+      </c>
+      <c r="J75">
+        <v>0.1399962313246185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2398337947814245</v>
+        <v>0.2595353755254944</v>
       </c>
       <c r="C76">
-        <v>-0.01153425274774709</v>
+        <v>-0.01993924493911444</v>
       </c>
       <c r="D76">
-        <v>0.1103760039134897</v>
+        <v>-0.1248978065229074</v>
       </c>
       <c r="E76">
-        <v>-0.08648935358948319</v>
+        <v>-0.1307432671701143</v>
       </c>
       <c r="F76">
-        <v>0.05166836316723534</v>
+        <v>0.09569950377710838</v>
       </c>
       <c r="G76">
-        <v>0.01561994902979869</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03351659957779467</v>
+      </c>
+      <c r="H76">
+        <v>0.01721921204490316</v>
+      </c>
+      <c r="I76">
+        <v>0.06607963505901594</v>
+      </c>
+      <c r="J76">
+        <v>0.1644785454892415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1275697745802351</v>
+        <v>0.1303703519811345</v>
       </c>
       <c r="C77">
-        <v>0.01915238329576171</v>
+        <v>-0.04548851628179305</v>
       </c>
       <c r="D77">
-        <v>-0.07929745649611462</v>
+        <v>0.04699023216398392</v>
       </c>
       <c r="E77">
-        <v>0.1648047330993164</v>
+        <v>0.1173382626219032</v>
       </c>
       <c r="F77">
-        <v>-0.00240027556168481</v>
+        <v>-0.1284457248113401</v>
       </c>
       <c r="G77">
-        <v>-0.1428111472193752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02326151024212431</v>
+      </c>
+      <c r="H77">
+        <v>-0.1711623674772525</v>
+      </c>
+      <c r="I77">
+        <v>-0.1584567017420622</v>
+      </c>
+      <c r="J77">
+        <v>0.1047447918315652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09376826783246717</v>
+        <v>0.08922050196038261</v>
       </c>
       <c r="C78">
-        <v>0.03280081762215111</v>
+        <v>-0.05527860384515296</v>
       </c>
       <c r="D78">
-        <v>-0.0252559210826916</v>
+        <v>0.0005976245628848771</v>
       </c>
       <c r="E78">
-        <v>0.0713431109994631</v>
+        <v>0.0501075780291349</v>
       </c>
       <c r="F78">
-        <v>-0.01239258959960037</v>
+        <v>-0.07305345542261907</v>
       </c>
       <c r="G78">
-        <v>0.02511492535001443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004058044788983571</v>
+      </c>
+      <c r="H78">
+        <v>-0.01869091853643079</v>
+      </c>
+      <c r="I78">
+        <v>-0.02493138049086083</v>
+      </c>
+      <c r="J78">
+        <v>0.03463057795155935</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0778141716163826</v>
+        <v>0.1203332234276988</v>
       </c>
       <c r="C80">
-        <v>-0.003976441124563575</v>
+        <v>0.1388526568163995</v>
       </c>
       <c r="D80">
-        <v>-0.005140779447727346</v>
+        <v>0.1941016880633823</v>
       </c>
       <c r="E80">
-        <v>-0.01152749970523543</v>
+        <v>-0.6443327961310131</v>
       </c>
       <c r="F80">
-        <v>0.06624368533640444</v>
+        <v>-0.6881220299702164</v>
       </c>
       <c r="G80">
-        <v>-0.161085918002505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.009057049381668597</v>
+      </c>
+      <c r="H80">
+        <v>0.1123217426363494</v>
+      </c>
+      <c r="I80">
+        <v>0.06450519323127857</v>
+      </c>
+      <c r="J80">
+        <v>-0.09491227387681328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1609074310886471</v>
+        <v>0.1718438209842442</v>
       </c>
       <c r="C81">
-        <v>-0.01065040540382762</v>
+        <v>-0.009357080660158707</v>
       </c>
       <c r="D81">
-        <v>0.06039952891982279</v>
+        <v>-0.08056292915831363</v>
       </c>
       <c r="E81">
-        <v>-0.1141080436929341</v>
+        <v>-0.1062475648220965</v>
       </c>
       <c r="F81">
-        <v>0.07537973061813022</v>
+        <v>0.09831258515594375</v>
       </c>
       <c r="G81">
-        <v>0.005672678757013606</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0189725209059053</v>
+      </c>
+      <c r="H81">
+        <v>0.01238334690184681</v>
+      </c>
+      <c r="I81">
+        <v>-0.003082636472070956</v>
+      </c>
+      <c r="J81">
+        <v>0.07998897886113668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08147106636870956</v>
+        <v>0.06467170396584612</v>
       </c>
       <c r="C83">
-        <v>0.03269245766986937</v>
+        <v>-0.0388399887356826</v>
       </c>
       <c r="D83">
-        <v>-0.093222184966051</v>
+        <v>0.04046146249486433</v>
       </c>
       <c r="E83">
-        <v>0.0272365880819651</v>
+        <v>0.05587513896764438</v>
       </c>
       <c r="F83">
-        <v>-0.06571026383710245</v>
+        <v>-0.02384586381154296</v>
       </c>
       <c r="G83">
-        <v>-0.03889070546193794</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04705551806651913</v>
+      </c>
+      <c r="H83">
+        <v>-0.04182186012946981</v>
+      </c>
+      <c r="I83">
+        <v>-0.007841000766426378</v>
+      </c>
+      <c r="J83">
+        <v>0.09240664267019202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2404519282801894</v>
+        <v>0.2522220799848099</v>
       </c>
       <c r="C85">
-        <v>0.05195180031736354</v>
+        <v>-0.0598738685966918</v>
       </c>
       <c r="D85">
-        <v>0.0634875693783261</v>
+        <v>-0.08124824379770937</v>
       </c>
       <c r="E85">
-        <v>-0.1267572427543091</v>
+        <v>-0.1290208313909729</v>
       </c>
       <c r="F85">
-        <v>0.03997647987978439</v>
+        <v>0.09081223813999585</v>
       </c>
       <c r="G85">
-        <v>-0.02042468928718359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008375793423331356</v>
+      </c>
+      <c r="H85">
+        <v>-0.02491479515530158</v>
+      </c>
+      <c r="I85">
+        <v>0.004015003795514387</v>
+      </c>
+      <c r="J85">
+        <v>0.1741980485400964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04785782513610235</v>
+        <v>0.03025090771016441</v>
       </c>
       <c r="C86">
-        <v>0.03529268550532216</v>
+        <v>-0.04305146488124543</v>
       </c>
       <c r="D86">
-        <v>0.001874771797564131</v>
+        <v>-0.006636269286220428</v>
       </c>
       <c r="E86">
-        <v>0.04974877235526154</v>
+        <v>0.02602637473573672</v>
       </c>
       <c r="F86">
-        <v>0.01051135875347514</v>
+        <v>-0.06032058151694026</v>
       </c>
       <c r="G86">
-        <v>-0.02666037095700779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.003220039862186746</v>
+      </c>
+      <c r="H86">
+        <v>-0.04736367588629143</v>
+      </c>
+      <c r="I86">
+        <v>-0.06154777795958146</v>
+      </c>
+      <c r="J86">
+        <v>0.0001652344561840389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03011189076060256</v>
+        <v>0.03812513692973503</v>
       </c>
       <c r="C87">
-        <v>-0.0566132438868225</v>
+        <v>0.02589972564038724</v>
       </c>
       <c r="D87">
-        <v>0.0147430109433811</v>
+        <v>-0.009817227257575625</v>
       </c>
       <c r="E87">
-        <v>0.05667523938127984</v>
+        <v>0.06822947772960024</v>
       </c>
       <c r="F87">
-        <v>-0.04716111395557061</v>
+        <v>-0.06029264592174921</v>
       </c>
       <c r="G87">
-        <v>0.1306194996289257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02553466774684222</v>
+      </c>
+      <c r="H87">
+        <v>0.01162492135926842</v>
+      </c>
+      <c r="I87">
+        <v>-0.0007511268096328236</v>
+      </c>
+      <c r="J87">
+        <v>-0.07446980365033969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03918262523937959</v>
+        <v>0.02517607220106334</v>
       </c>
       <c r="C88">
-        <v>0.02425119281105254</v>
+        <v>-0.01740149220548439</v>
       </c>
       <c r="D88">
-        <v>0.007356279762497806</v>
+        <v>-0.01023115594018408</v>
       </c>
       <c r="E88">
-        <v>-0.004261648967531874</v>
+        <v>-0.02108256229697159</v>
       </c>
       <c r="F88">
-        <v>0.01404824595626817</v>
+        <v>-0.01627993215500066</v>
       </c>
       <c r="G88">
-        <v>-0.05175799600672197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02335957950148401</v>
+      </c>
+      <c r="H88">
+        <v>-0.04535058657514916</v>
+      </c>
+      <c r="I88">
+        <v>0.02079052344660016</v>
+      </c>
+      <c r="J88">
+        <v>-0.02251967623254661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01111259885821007</v>
+        <v>0.05482247589430549</v>
       </c>
       <c r="C89">
-        <v>-0.4236993767407913</v>
+        <v>0.388549842217191</v>
       </c>
       <c r="D89">
-        <v>-0.09349930438768263</v>
+        <v>0.02482899578956534</v>
       </c>
       <c r="E89">
-        <v>-0.0455095949986543</v>
+        <v>0.06566008998011809</v>
       </c>
       <c r="F89">
-        <v>-0.02057753603442459</v>
+        <v>0.0295417377190032</v>
       </c>
       <c r="G89">
-        <v>-0.02355398262531435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06518448899260952</v>
+      </c>
+      <c r="H89">
+        <v>0.01593153602099807</v>
+      </c>
+      <c r="I89">
+        <v>-0.2850313215988594</v>
+      </c>
+      <c r="J89">
+        <v>0.08180071530587109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0145234169374065</v>
+        <v>0.03142918856630736</v>
       </c>
       <c r="C90">
-        <v>-0.306238270427178</v>
+        <v>0.3303174521943322</v>
       </c>
       <c r="D90">
-        <v>-0.02249013290972313</v>
+        <v>0.009419559711602611</v>
       </c>
       <c r="E90">
-        <v>0.02647367928528692</v>
+        <v>0.0374713449630967</v>
       </c>
       <c r="F90">
-        <v>-0.00991659327612128</v>
+        <v>-0.01097272021615945</v>
       </c>
       <c r="G90">
-        <v>0.07675978223765004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01897199418100649</v>
+      </c>
+      <c r="H90">
+        <v>0.04459890033834413</v>
+      </c>
+      <c r="I90">
+        <v>-0.1989073081102394</v>
+      </c>
+      <c r="J90">
+        <v>0.05510471078308199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3076769303534433</v>
+        <v>0.315447476356071</v>
       </c>
       <c r="C91">
-        <v>0.02345356291808696</v>
+        <v>-0.0466572917162232</v>
       </c>
       <c r="D91">
-        <v>0.08113988346454454</v>
+        <v>-0.09415676359661</v>
       </c>
       <c r="E91">
-        <v>-0.2564192808070613</v>
+        <v>-0.2119881949029942</v>
       </c>
       <c r="F91">
-        <v>0.1337312905982267</v>
+        <v>0.1931621528916189</v>
       </c>
       <c r="G91">
-        <v>-0.09466742503690598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03042299410108135</v>
+      </c>
+      <c r="H91">
+        <v>0.01137061144446919</v>
+      </c>
+      <c r="I91">
+        <v>0.0006837383219139234</v>
+      </c>
+      <c r="J91">
+        <v>0.2992944194054802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02368056979312868</v>
+        <v>0.07199310501652599</v>
       </c>
       <c r="C92">
-        <v>-0.4492567185265844</v>
+        <v>0.4734804135445322</v>
       </c>
       <c r="D92">
-        <v>-0.1907809527805116</v>
+        <v>0.04792824879504851</v>
       </c>
       <c r="E92">
-        <v>-0.1245089596928378</v>
+        <v>-0.06597078508453311</v>
       </c>
       <c r="F92">
-        <v>0.1043067047659346</v>
+        <v>0.151090335905437</v>
       </c>
       <c r="G92">
-        <v>-0.543894935820425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04144816161046134</v>
+      </c>
+      <c r="H92">
+        <v>-0.5740614196228342</v>
+      </c>
+      <c r="I92">
+        <v>0.6125375012224429</v>
+      </c>
+      <c r="J92">
+        <v>-0.0528470273517154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02279068266769039</v>
+        <v>0.03321296268604739</v>
       </c>
       <c r="C93">
-        <v>-0.3655891476021259</v>
+        <v>0.4053879740448883</v>
       </c>
       <c r="D93">
-        <v>-0.06527635579197995</v>
+        <v>0.02988202940586634</v>
       </c>
       <c r="E93">
-        <v>-0.05868746984808426</v>
+        <v>0.02711699788850623</v>
       </c>
       <c r="F93">
-        <v>0.02322157140542466</v>
+        <v>0.05753798839885523</v>
       </c>
       <c r="G93">
-        <v>0.009901185775114401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03662001038475627</v>
+      </c>
+      <c r="H93">
+        <v>0.05360997735982757</v>
+      </c>
+      <c r="I93">
+        <v>-0.1984348689676277</v>
+      </c>
+      <c r="J93">
+        <v>0.06779594367244786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3067907283861632</v>
+        <v>0.3238708050245777</v>
       </c>
       <c r="C94">
-        <v>-0.02452081467385583</v>
+        <v>-0.01270051630250833</v>
       </c>
       <c r="D94">
-        <v>0.06949680877091588</v>
+        <v>-0.1488307272506312</v>
       </c>
       <c r="E94">
-        <v>-0.3990622189508427</v>
+        <v>-0.25370164825259</v>
       </c>
       <c r="F94">
-        <v>0.4568681710001439</v>
+        <v>0.2932734155400131</v>
       </c>
       <c r="G94">
-        <v>0.1284079014695552</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2079536545948536</v>
+      </c>
+      <c r="H94">
+        <v>-0.04053644460333547</v>
+      </c>
+      <c r="I94">
+        <v>-0.2812282976049193</v>
+      </c>
+      <c r="J94">
+        <v>-0.4860248078836014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1968485774450893</v>
+        <v>0.1433039927264275</v>
       </c>
       <c r="C95">
-        <v>-0.0323590087732081</v>
+        <v>-0.06060839827014349</v>
       </c>
       <c r="D95">
-        <v>0.0353711310941951</v>
+        <v>-0.04302292858324709</v>
       </c>
       <c r="E95">
-        <v>-0.4227414094468163</v>
+        <v>-0.0008384222740258385</v>
       </c>
       <c r="F95">
-        <v>-0.8193364954279649</v>
+        <v>0.0567634924484561</v>
       </c>
       <c r="G95">
-        <v>-0.08214008559313173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9270606360660882</v>
+      </c>
+      <c r="H95">
+        <v>0.06515283019457621</v>
+      </c>
+      <c r="I95">
+        <v>-0.009839831973985766</v>
+      </c>
+      <c r="J95">
+        <v>-0.2538704456372481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2162249779813184</v>
+        <v>0.2091404886066437</v>
       </c>
       <c r="C98">
-        <v>-0.1327600615917106</v>
+        <v>0.07254265123533005</v>
       </c>
       <c r="D98">
-        <v>-0.03415012539758628</v>
+        <v>0.0008727682259748181</v>
       </c>
       <c r="E98">
-        <v>0.1048747913868504</v>
+        <v>0.1864649698809579</v>
       </c>
       <c r="F98">
-        <v>-0.04419871315801444</v>
+        <v>-0.0295342510071345</v>
       </c>
       <c r="G98">
-        <v>0.2439929428851242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0562243915521321</v>
+      </c>
+      <c r="H98">
+        <v>0.292033183442397</v>
+      </c>
+      <c r="I98">
+        <v>0.2125269992416628</v>
+      </c>
+      <c r="J98">
+        <v>-0.05627975470522513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01930988280077997</v>
+        <v>0.01242195800245393</v>
       </c>
       <c r="C101">
-        <v>0.01769985856216402</v>
+        <v>-0.02889777448105383</v>
       </c>
       <c r="D101">
-        <v>0.019520237072581</v>
+        <v>-0.02697019312378851</v>
       </c>
       <c r="E101">
-        <v>0.03608047009121411</v>
+        <v>0.03284142887733637</v>
       </c>
       <c r="F101">
-        <v>-0.01030861398121804</v>
+        <v>-0.05948600372949392</v>
       </c>
       <c r="G101">
-        <v>-0.05184081348845566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.008097626931879855</v>
+      </c>
+      <c r="H101">
+        <v>-0.1152253611675503</v>
+      </c>
+      <c r="I101">
+        <v>-0.01976925827310574</v>
+      </c>
+      <c r="J101">
+        <v>-0.1021437193889126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1195341438840237</v>
+        <v>0.1212115444717919</v>
       </c>
       <c r="C102">
-        <v>0.005192416378280584</v>
+        <v>-0.02983371238688774</v>
       </c>
       <c r="D102">
-        <v>0.04946116551421309</v>
+        <v>-0.04958672532265207</v>
       </c>
       <c r="E102">
-        <v>-0.07423372783523648</v>
+        <v>-0.07652599797694505</v>
       </c>
       <c r="F102">
-        <v>-0.007725291209952107</v>
+        <v>0.04547837799726134</v>
       </c>
       <c r="G102">
-        <v>-0.004387490644269981</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02952767129912755</v>
+      </c>
+      <c r="H102">
+        <v>0.006138917480060975</v>
+      </c>
+      <c r="I102">
+        <v>-0.02046556975345455</v>
+      </c>
+      <c r="J102">
+        <v>0.06559696050443951</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01713350228228359</v>
+        <v>0.02480839122863041</v>
       </c>
       <c r="C103">
-        <v>-0.002115015591259433</v>
+        <v>-0.004017804506621554</v>
       </c>
       <c r="D103">
-        <v>0.01913207207684919</v>
+        <v>-0.01639391195178842</v>
       </c>
       <c r="E103">
-        <v>-0.02908991915443854</v>
+        <v>-0.02959704642827648</v>
       </c>
       <c r="F103">
-        <v>0.01794773314492125</v>
+        <v>0.001823700528728564</v>
       </c>
       <c r="G103">
-        <v>0.01195486282190042</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01473999111925563</v>
+      </c>
+      <c r="H103">
+        <v>0.001183505433358336</v>
+      </c>
+      <c r="I103">
+        <v>-0.02265109682374782</v>
+      </c>
+      <c r="J103">
+        <v>0.00983017015993728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
